--- a/results/Test-Results.xlsx
+++ b/results/Test-Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bstarcheus/UC/7-2022-Spring/Senior Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bstarcheus/UC/7-2022-Spring/Senior Design/class-repo/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742B28F-5056-5F4C-BCB8-07D57F36FE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1931463-1DA5-F54F-AE24-B5050C282F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25860" windowHeight="18260" xr2:uid="{CF652EE4-1DB3-6349-9F7D-8B07895F2C3E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27440" windowHeight="19020" xr2:uid="{CF652EE4-1DB3-6349-9F7D-8B07895F2C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,8 +470,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35465314455717284"/>
-              <c:y val="0.81390401199850015"/>
+              <c:x val="0.3434381945873296"/>
+              <c:y val="0.78533258342707157"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -685,7 +685,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17688183769759724"/>
-          <c:y val="0.89541957255343085"/>
+          <c:y val="0.91446719160104983"/>
           <c:w val="0.64623632460480551"/>
           <c:h val="7.8125546806649168E-2"/>
         </c:manualLayout>
@@ -760,6 +760,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1358,6 +1359,59 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34392</cdr:x>
+      <cdr:y>0.85397</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68224</cdr:x>
+      <cdr:y>0.93016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBA9EB6-6E58-EF4B-8DB7-5F181085874A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1557866" y="2277532"/>
+          <a:ext cx="1532466" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="950" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Human Opponent Strategy</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1659,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5116E689-EA7F-E44D-8F3D-9997533884BD}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
